--- a/data/xlsx/resumen-v2.xlsx
+++ b/data/xlsx/resumen-v2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="253">
   <si>
     <t xml:space="preserve">Municipio</t>
   </si>
@@ -692,51 +692,36 @@
     <t xml:space="preserve">no2.resolucion</t>
   </si>
   <si>
-    <t xml:space="preserve">no2.count</t>
-  </si>
-  <si>
     <t xml:space="preserve">no2.start_dt</t>
   </si>
   <si>
     <t xml:space="preserve">no.resolucion</t>
   </si>
   <si>
-    <t xml:space="preserve">no.count</t>
-  </si>
-  <si>
     <t xml:space="preserve">no.start_dt</t>
   </si>
   <si>
     <t xml:space="preserve">o3.resolucion</t>
   </si>
   <si>
-    <t xml:space="preserve">o3.count</t>
-  </si>
-  <si>
     <t xml:space="preserve">o3.start_dt</t>
   </si>
   <si>
     <t xml:space="preserve">pm10.resolucion</t>
   </si>
   <si>
-    <t xml:space="preserve">pm10.count</t>
-  </si>
-  <si>
     <t xml:space="preserve">pm10.start_dt</t>
   </si>
   <si>
+    <t xml:space="preserve">pm2.5.resolucion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm2.5.start_dt</t>
+  </si>
+  <si>
     <t xml:space="preserve">pm10.end_dt</t>
   </si>
   <si>
-    <t xml:space="preserve">pm2.5.resolucion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm2.5.count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm2.5.start_dt</t>
-  </si>
-  <si>
     <t xml:space="preserve">hour</t>
   </si>
   <si>
@@ -752,51 +737,39 @@
     <t xml:space="preserve">Faltan datos de todo el 2013</t>
   </si>
   <si>
-    <t xml:space="preserve">DATOS HASTA EL 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTACION DE FONDO URBANO</t>
+    <t xml:space="preserve">DATE_START = 01/01/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE_START = 15/02/2013</t>
   </si>
   <si>
     <t xml:space="preserve">Datos desde el 2017</t>
   </si>
   <si>
-    <t xml:space="preserve">DATE_START = 01/01/2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE_START = 15/02/2013</t>
-  </si>
-  <si>
     <t xml:space="preserve">DATE_START = 18/05/2011</t>
   </si>
   <si>
+    <t xml:space="preserve">DATE_START = 31/05/2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE_START = 18/01/2010</t>
+  </si>
+  <si>
     <t xml:space="preserve">Datos hasta el 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">DATE_START = 31/05/2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE_START = 18/01/2010</t>
-  </si>
-  <si>
     <t xml:space="preserve">DATE_START = 01/01/2013</t>
   </si>
   <si>
+    <t xml:space="preserve">DATE_START = 02/11/2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE_START = 28/05/2010</t>
+  </si>
+  <si>
     <t xml:space="preserve">Faltan datos desde el 2014 al 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">DATE_START = 02/11/2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE_START = 18/02/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATE_START = 28/05/2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No valen para el estudio</t>
-  </si>
-  <si>
     <t xml:space="preserve">DATE_START = 08/04/2013</t>
   </si>
   <si>
@@ -806,18 +779,19 @@
     <t xml:space="preserve">DATE_START = 22/05/2015</t>
   </si>
   <si>
-    <t xml:space="preserve">Eliminadas al filtrar estaciones con datos hasta el 2010</t>
+    <t xml:space="preserve">Eliminadas al filtrar estaciones con datos desde el 2010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -863,8 +837,14 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -979,12 +959,6 @@
         <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF395511"/>
-        <bgColor rgb="FF333333"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -1020,7 +994,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1041,7 +1015,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1057,7 +1047,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1065,7 +1055,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1093,6 +1083,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1109,40 +1103,48 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1197,11 +1199,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1210,10 +1208,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1226,10 +1220,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1299,7 +1289,7 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF5983B0"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF395511"/>
+      <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF5B277D"/>
@@ -1314,10 +1304,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
+      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2955,11 +2945,6 @@
       </c>
       <c r="G79" s="1" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="1" t="n">
-        <v>56307758</v>
       </c>
     </row>
   </sheetData>
@@ -2980,8 +2965,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2991,16 +2976,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="1" width="18.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.93"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="1" width="15.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="29.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="28.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="22.6"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="1" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="18.89"/>
@@ -3022,1915 +3007,1722 @@
         <v>216</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="J1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="N1" s="4"/>
+      <c r="L1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
-      <c r="Q1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="33.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="0"/>
+      <c r="I2" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5" t="s">
+      <c r="O2" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="6"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>346843</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" s="12" t="n">
+        <v>42736</v>
+      </c>
+      <c r="H3" s="0"/>
+      <c r="I3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="M3" s="12" t="n">
+        <v>42736</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="O3" s="12" t="n">
+        <v>43888</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="13"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>24350</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="15" t="n">
+        <v>35440</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" s="0"/>
+      <c r="I4" s="17" t="n">
+        <v>36526</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="19" t="n">
+        <v>35431</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>346844</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="15" t="n">
+        <v>35431</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H5" s="0"/>
+      <c r="I5" s="17" t="n">
+        <v>36526</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K5" s="19" t="n">
+        <v>35431</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M5" s="21" t="n">
+        <v>36952</v>
+      </c>
+      <c r="O5" s="13"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="16" t="n">
+        <v>3266127</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="15" t="n">
+        <v>33970</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H6" s="0"/>
+      <c r="I6" s="17" t="n">
+        <v>38353</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K6" s="19" t="n">
+        <v>37257</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M6" s="21" t="n">
+        <v>38353</v>
+      </c>
+      <c r="O6" s="13"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="0"/>
+      <c r="X6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="16" t="n">
+        <v>3266129</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>38353</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H7" s="0"/>
+      <c r="I7" s="17" t="n">
+        <v>38353</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K7" s="19" t="n">
+        <v>37257</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M7" s="21" t="n">
+        <v>38353</v>
+      </c>
+      <c r="O7" s="13"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="16" t="n">
+        <v>3266130</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>36091</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H8" s="0"/>
+      <c r="I8" s="17" t="n">
+        <v>36526</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K8" s="19" t="n">
+        <v>36083</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M8" s="21" t="n">
+        <v>35431</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="16" t="n">
+        <v>3266131</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>37257</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H9" s="0"/>
+      <c r="I9" s="17" t="n">
+        <v>37257</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K9" s="19" t="n">
+        <v>37257</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M9" s="21" t="n">
+        <v>37257</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="0"/>
+      <c r="X9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="16" t="n">
+        <v>3266132</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>38353</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="0"/>
+      <c r="I10" s="17" t="n">
+        <v>38353</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K10" s="19" t="n">
+        <v>37257</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M10" s="21" t="n">
+        <v>38353</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="O10" s="24" t="n">
+        <v>38163</v>
+      </c>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="0"/>
+      <c r="X10" s="24"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="16" t="n">
+        <v>3266128</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="27" t="n">
+        <v>40179</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" s="0"/>
+      <c r="I11" s="29" t="n">
+        <v>40179</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="K11" s="31" t="n">
+        <v>40179</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="M11" s="33" t="n">
+        <v>40179</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="O11" s="35" t="n">
+        <v>40179</v>
+      </c>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="0"/>
+      <c r="X11" s="24"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="18" t="n">
+        <v>688593</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" s="15" t="n">
+        <v>35431</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H12" s="0"/>
+      <c r="I12" s="17" t="n">
+        <v>36526</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K12" s="19" t="n">
+        <v>35431</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M12" s="21" t="n">
+        <v>35431</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="O12" s="24" t="n">
+        <v>39448</v>
+      </c>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="0"/>
+      <c r="X12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="18" t="n">
+        <v>688592</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>38353</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H13" s="0"/>
+      <c r="I13" s="17" t="n">
+        <v>38353</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K13" s="19" t="n">
+        <v>37257</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M13" s="21" t="n">
+        <v>38353</v>
+      </c>
+      <c r="O13" s="13"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="0"/>
+      <c r="X13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="20" t="n">
+        <v>674998</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>35431</v>
+      </c>
+      <c r="H14" s="0"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K14" s="19" t="n">
+        <v>35431</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M14" s="21" t="n">
+        <v>35431</v>
+      </c>
+      <c r="O14" s="13"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="0"/>
+      <c r="X14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="20" t="n">
+        <v>674999</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>39814</v>
+      </c>
+      <c r="H15" s="0"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K15" s="19" t="n">
+        <v>38904</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="0"/>
+      <c r="X15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="20" t="n">
+        <v>674997</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="15" t="n">
+        <v>39840</v>
+      </c>
+      <c r="H16" s="0"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K16" s="19" t="n">
+        <v>39010</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="0"/>
+      <c r="X16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="23" t="n">
+        <v>24760</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="15" t="n">
+        <v>35431</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H17" s="0"/>
+      <c r="I17" s="17" t="n">
+        <v>36526</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K17" s="19" t="n">
+        <v>35431</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M17" s="21" t="n">
+        <v>39814</v>
+      </c>
+      <c r="O17" s="13"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="0"/>
+      <c r="X17" s="24"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="23" t="n">
+        <v>794288</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" s="15" t="n">
+        <v>35431</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H18" s="0"/>
+      <c r="I18" s="17" t="n">
+        <v>36526</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K18" s="19" t="n">
+        <v>35431</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M18" s="21" t="n">
+        <v>40102</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="O18" s="24" t="n">
+        <v>40102</v>
+      </c>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="0"/>
+      <c r="X18" s="38"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="23" t="n">
+        <v>38024</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" s="15" t="n">
+        <v>37622</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H19" s="0"/>
+      <c r="I19" s="17" t="n">
+        <v>37622</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K19" s="19" t="n">
+        <v>38520</v>
+      </c>
+      <c r="L19" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="X2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>346843</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F3" s="7" t="n">
-        <v>151</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="R3" s="11"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="6" t="n">
-        <v>24350</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>125638</v>
-      </c>
-      <c r="G4" s="9" t="n">
-        <v>35440</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J4" s="12" t="n">
-        <v>101361</v>
-      </c>
-      <c r="K4" s="13" t="n">
+      <c r="M19" s="38" t="n">
+        <v>38770</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="O19" s="38" t="n">
+        <v>39818</v>
+      </c>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="0"/>
+      <c r="X19" s="24"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="23" t="n">
+        <v>794289</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" s="15" t="n">
+        <v>39814</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H20" s="0"/>
+      <c r="I20" s="17" t="n">
+        <v>39814</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K20" s="19" t="n">
+        <v>39814</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M20" s="21" t="n">
+        <v>40129</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="O20" s="24" t="n">
+        <v>40129</v>
+      </c>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="0"/>
+      <c r="X20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="40" t="n">
+        <v>219687</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F21" s="15" t="n">
+        <v>35431</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H21" s="0"/>
+      <c r="I21" s="17" t="n">
+        <v>36600</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K21" s="19" t="n">
+        <v>35431</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M21" s="21" t="n">
+        <v>38353</v>
+      </c>
+      <c r="O21" s="13"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="0"/>
+      <c r="X21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="40" t="n">
+        <v>219686</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" s="15" t="n">
+        <v>38353</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H22" s="0"/>
+      <c r="I22" s="17" t="n">
+        <v>38353</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K22" s="19" t="n">
+        <v>37257</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M22" s="21" t="n">
+        <v>38353</v>
+      </c>
+      <c r="O22" s="13"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="0"/>
+      <c r="X22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="41" t="n">
+        <v>271780</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="15" t="n">
+        <v>38353</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H23" s="0"/>
+      <c r="I23" s="17" t="n">
+        <v>38353</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K23" s="19" t="n">
+        <v>37257</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M23" s="21" t="n">
+        <v>38353</v>
+      </c>
+      <c r="O23" s="13"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="0"/>
+      <c r="X23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="41" t="n">
+        <v>271782</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F24" s="15" t="n">
+        <v>38353</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H24" s="0"/>
+      <c r="I24" s="17" t="n">
+        <v>38353</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K24" s="19" t="n">
+        <v>37257</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" s="21" t="n">
+        <v>38353</v>
+      </c>
+      <c r="O24" s="13"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="0"/>
+      <c r="X24" s="24"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="41" t="n">
+        <v>271781</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="15" t="n">
+        <v>38353</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H25" s="0"/>
+      <c r="I25" s="17" t="n">
+        <v>38353</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" s="19" t="n">
+        <v>37257</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" s="21" t="n">
+        <v>38353</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="O25" s="24" t="n">
+        <v>39818</v>
+      </c>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="0"/>
+      <c r="X25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="41" t="n">
+        <v>271783</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F26" s="15" t="n">
+        <v>35431</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H26" s="0"/>
+      <c r="I26" s="17" t="n">
         <v>36526</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N4" s="14" t="n">
-        <v>94149</v>
-      </c>
-      <c r="O4" s="15" t="n">
+      <c r="J26" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K26" s="19" t="n">
         <v>35431</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="6" t="n">
-        <v>346844</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>134359</v>
-      </c>
-      <c r="G5" s="9" t="n">
+      <c r="L26" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M26" s="21" t="n">
+        <v>36892</v>
+      </c>
+      <c r="O26" s="13"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="0"/>
+      <c r="X26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="42" t="n">
+        <v>1636763</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F27" s="15" t="n">
         <v>35431</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J5" s="12" t="n">
-        <v>108424</v>
-      </c>
-      <c r="K5" s="13" t="n">
+      <c r="G27" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H27" s="0"/>
+      <c r="I27" s="17" t="n">
+        <v>36536</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K27" s="19" t="n">
+        <v>35431</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="M27" s="38" t="n">
+        <v>37272</v>
+      </c>
+      <c r="O27" s="13"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="0"/>
+      <c r="X27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="42" t="n">
+        <v>1636762</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F28" s="15" t="n">
+        <v>35738</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H28" s="0"/>
+      <c r="I28" s="17" t="n">
         <v>36526</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N5" s="14" t="n">
-        <v>133958</v>
-      </c>
-      <c r="O5" s="15" t="n">
-        <v>35431</v>
-      </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R5" s="16" t="n">
-        <v>7252</v>
-      </c>
-      <c r="S5" s="17" t="n">
-        <v>36952</v>
-      </c>
-      <c r="T5" s="17"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="12" t="n">
-        <v>3266127</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>69476</v>
-      </c>
-      <c r="G6" s="9" t="n">
-        <v>33970</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J6" s="12" t="n">
-        <v>34771</v>
-      </c>
-      <c r="K6" s="13" t="n">
+      <c r="J28" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" s="44" t="n">
+        <v>35738</v>
+      </c>
+      <c r="L28" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="M28" s="38" t="n">
+        <v>37258</v>
+      </c>
+      <c r="O28" s="13"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="0"/>
+      <c r="X28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" s="45" t="n">
+        <v>251775</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F29" s="15" t="n">
+        <v>35886</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" s="0"/>
+      <c r="I29" s="17" t="n">
+        <v>36526</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" s="19" t="n">
+        <v>35886</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M29" s="21" t="n">
+        <v>36452</v>
+      </c>
+      <c r="O29" s="13"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="0"/>
+      <c r="X29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="45" t="n">
+        <v>251774</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F30" s="15" t="n">
+        <v>36892</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H30" s="0"/>
+      <c r="I30" s="17" t="n">
+        <v>36892</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K30" s="19" t="n">
+        <v>36892</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M30" s="21" t="n">
+        <v>37056</v>
+      </c>
+      <c r="O30" s="13"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="0"/>
+      <c r="X30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="45" t="n">
+        <v>251776</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F31" s="15" t="n">
         <v>38353</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N6" s="14" t="n">
-        <v>69765</v>
-      </c>
-      <c r="O6" s="15" t="n">
-        <v>37257</v>
-      </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R6" s="16" t="n">
-        <v>8649</v>
-      </c>
-      <c r="S6" s="17" t="n">
+      <c r="G31" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31" s="0"/>
+      <c r="I31" s="17" t="n">
         <v>38353</v>
       </c>
-      <c r="T6" s="17"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="12" t="n">
-        <v>3266129</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>43699</v>
-      </c>
-      <c r="G7" s="9" t="n">
+      <c r="K31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="0"/>
+      <c r="X31" s="24"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="46" t="n">
+        <v>298412</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F32" s="15" t="n">
         <v>38353</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J7" s="12" t="n">
-        <v>34948</v>
-      </c>
-      <c r="K7" s="13" t="n">
+      <c r="G32" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H32" s="0"/>
+      <c r="I32" s="17" t="n">
         <v>38353</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N7" s="14" t="n">
-        <v>69690</v>
-      </c>
-      <c r="O7" s="15" t="n">
-        <v>37257</v>
-      </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R7" s="16" t="n">
-        <v>8713</v>
-      </c>
-      <c r="S7" s="17" t="n">
+      <c r="K32" s="13"/>
+      <c r="L32" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M32" s="21" t="n">
         <v>38353</v>
       </c>
-      <c r="T7" s="17"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="12" t="n">
-        <v>3266130</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>123342</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <v>36091</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J8" s="12" t="n">
-        <v>113122</v>
-      </c>
-      <c r="K8" s="13" t="n">
+      <c r="N32" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="O32" s="24" t="n">
+        <v>37987</v>
+      </c>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="0"/>
+      <c r="X32" s="24"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="46" t="n">
+        <v>298414</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F33" s="15" t="n">
+        <v>38353</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H33" s="0"/>
+      <c r="I33" s="17" t="n">
+        <v>38353</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K33" s="19" t="n">
+        <v>37382</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M33" s="21" t="n">
+        <v>38353</v>
+      </c>
+      <c r="N33" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="O33" s="24" t="n">
+        <v>39814</v>
+      </c>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="0"/>
+      <c r="X33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="47" t="n">
+        <v>187416</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="15" t="n">
+        <v>35886</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H34" s="0"/>
+      <c r="I34" s="17" t="n">
         <v>36526</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N8" s="14" t="n">
-        <v>96537</v>
-      </c>
-      <c r="O8" s="15" t="n">
-        <v>36083</v>
-      </c>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R8" s="16" t="n">
-        <v>97217</v>
-      </c>
-      <c r="S8" s="17" t="n">
-        <v>35431</v>
-      </c>
-      <c r="T8" s="17"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="12" t="n">
-        <v>3266131</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>92984</v>
-      </c>
-      <c r="G9" s="9" t="n">
-        <v>37257</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J9" s="12" t="n">
-        <v>92983</v>
-      </c>
-      <c r="K9" s="13" t="n">
-        <v>37257</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N9" s="14" t="n">
-        <v>91703</v>
-      </c>
-      <c r="O9" s="15" t="n">
-        <v>37257</v>
-      </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R9" s="16" t="n">
-        <v>66014</v>
-      </c>
-      <c r="S9" s="17" t="n">
-        <v>37257</v>
-      </c>
-      <c r="T9" s="17"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="12" t="n">
-        <v>3266132</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>43685</v>
-      </c>
-      <c r="G10" s="9" t="n">
+      <c r="J34" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K34" s="19" t="n">
+        <v>35886</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M34" s="21" t="n">
+        <v>36454</v>
+      </c>
+      <c r="O34" s="13"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="0"/>
+      <c r="X34" s="24"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="47" t="n">
+        <v>187417</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F35" s="15" t="n">
         <v>38353</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J10" s="12" t="n">
-        <v>34932</v>
-      </c>
-      <c r="K10" s="13" t="n">
+      <c r="G35" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H35" s="0"/>
+      <c r="I35" s="17" t="n">
         <v>38353</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N10" s="14" t="n">
-        <v>68430</v>
-      </c>
-      <c r="O10" s="15" t="n">
-        <v>37257</v>
-      </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R10" s="16" t="n">
-        <v>34874</v>
-      </c>
-      <c r="S10" s="17" t="n">
+      <c r="J35" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K35" s="19" t="n">
+        <v>38042</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M35" s="21" t="n">
         <v>38353</v>
       </c>
-      <c r="T10" s="17"/>
-      <c r="U10" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="V10" s="18" t="n">
-        <v>39086</v>
-      </c>
-      <c r="W10" s="19" t="n">
-        <v>38163</v>
-      </c>
-      <c r="X10" s="19"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="12" t="n">
-        <v>3266128</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="19"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="14" t="n">
-        <v>688593</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>131561</v>
-      </c>
-      <c r="G12" s="9" t="n">
-        <v>35431</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J12" s="12" t="n">
-        <v>106439</v>
-      </c>
-      <c r="K12" s="13" t="n">
-        <v>36526</v>
-      </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N12" s="14" t="n">
-        <v>45191</v>
-      </c>
-      <c r="O12" s="15" t="n">
-        <v>35431</v>
-      </c>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R12" s="16" t="n">
-        <v>63726</v>
-      </c>
-      <c r="S12" s="17" t="n">
-        <v>35431</v>
-      </c>
-      <c r="T12" s="17"/>
-      <c r="U12" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="V12" s="18" t="n">
-        <v>15969</v>
-      </c>
-      <c r="W12" s="19" t="n">
-        <v>39448</v>
-      </c>
-      <c r="X12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="14" t="n">
-        <v>688592</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>67473</v>
-      </c>
-      <c r="G13" s="9" t="n">
-        <v>38353</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J13" s="12" t="n">
-        <v>67469</v>
-      </c>
-      <c r="K13" s="13" t="n">
-        <v>38353</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N13" s="14" t="n">
-        <v>93604</v>
-      </c>
-      <c r="O13" s="15" t="n">
-        <v>37257</v>
-      </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R13" s="16" t="n">
-        <v>10783</v>
-      </c>
-      <c r="S13" s="17" t="n">
-        <v>38353</v>
-      </c>
-      <c r="T13" s="17"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B14" s="16" t="n">
-        <v>674998</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>126616</v>
-      </c>
-      <c r="G14" s="9" t="n">
-        <v>35431</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N14" s="14" t="n">
-        <v>127533</v>
-      </c>
-      <c r="O14" s="15" t="n">
-        <v>35431</v>
-      </c>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R14" s="16" t="n">
-        <v>134234</v>
-      </c>
-      <c r="S14" s="17" t="n">
-        <v>35431</v>
-      </c>
-      <c r="T14" s="17"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" s="16" t="n">
-        <v>674999</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>8487</v>
-      </c>
-      <c r="G15" s="9" t="n">
-        <v>39814</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N15" s="14" t="n">
-        <v>37685</v>
-      </c>
-      <c r="O15" s="15" t="n">
-        <v>38904</v>
-      </c>
-      <c r="P15" s="15"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B16" s="16" t="n">
-        <v>674997</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>7682</v>
-      </c>
-      <c r="G16" s="9" t="n">
-        <v>39840</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N16" s="14" t="n">
-        <v>36450</v>
-      </c>
-      <c r="O16" s="15" t="n">
-        <v>39010</v>
-      </c>
-      <c r="P16" s="15"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="18" t="n">
-        <v>24760</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>122329</v>
-      </c>
-      <c r="G17" s="9" t="n">
-        <v>35431</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J17" s="12" t="n">
-        <v>96596</v>
-      </c>
-      <c r="K17" s="13" t="n">
-        <v>36526</v>
-      </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N17" s="14" t="n">
-        <v>129247</v>
-      </c>
-      <c r="O17" s="15" t="n">
-        <v>35431</v>
-      </c>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R17" s="16" t="n">
-        <v>7919</v>
-      </c>
-      <c r="S17" s="17" t="n">
-        <v>39814</v>
-      </c>
-      <c r="T17" s="17"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="19"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="18" t="n">
-        <v>794288</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>124488</v>
-      </c>
-      <c r="G18" s="9" t="n">
-        <v>35431</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J18" s="12" t="n">
-        <v>99254</v>
-      </c>
-      <c r="K18" s="13" t="n">
-        <v>36526</v>
-      </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N18" s="14" t="n">
-        <v>124092</v>
-      </c>
-      <c r="O18" s="15" t="n">
-        <v>35431</v>
-      </c>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R18" s="16" t="n">
-        <v>26993</v>
-      </c>
-      <c r="S18" s="17" t="n">
-        <v>40102</v>
-      </c>
-      <c r="T18" s="17"/>
-      <c r="U18" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="V18" s="18" t="n">
-        <v>1823</v>
-      </c>
-      <c r="W18" s="19" t="n">
-        <v>40102</v>
-      </c>
-      <c r="X18" s="31"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="18" t="n">
-        <v>38024</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>67982</v>
-      </c>
-      <c r="G19" s="9" t="n">
-        <v>37622</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J19" s="12" t="n">
-        <v>67981</v>
-      </c>
-      <c r="K19" s="13" t="n">
-        <v>37622</v>
-      </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N19" s="14" t="n">
-        <v>54274</v>
-      </c>
-      <c r="O19" s="15" t="n">
-        <v>38520</v>
-      </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="R19" s="32" t="n">
-        <v>2023</v>
-      </c>
-      <c r="S19" s="31" t="n">
-        <v>38770</v>
-      </c>
-      <c r="T19" s="31"/>
-      <c r="U19" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="V19" s="32" t="n">
-        <v>18333</v>
-      </c>
-      <c r="W19" s="31" t="n">
-        <v>39818</v>
-      </c>
-      <c r="X19" s="19"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B20" s="18" t="n">
-        <v>794289</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>29687</v>
-      </c>
-      <c r="G20" s="9" t="n">
-        <v>39814</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J20" s="12" t="n">
-        <v>29688</v>
-      </c>
-      <c r="K20" s="13" t="n">
-        <v>39814</v>
-      </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N20" s="14" t="n">
-        <v>34409</v>
-      </c>
-      <c r="O20" s="15" t="n">
-        <v>39814</v>
-      </c>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R20" s="16" t="n">
-        <v>1189</v>
-      </c>
-      <c r="S20" s="17" t="n">
-        <v>40129</v>
-      </c>
-      <c r="T20" s="17"/>
-      <c r="U20" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="V20" s="18" t="n">
-        <v>1189</v>
-      </c>
-      <c r="W20" s="19" t="n">
-        <v>40129</v>
-      </c>
-      <c r="X20" s="10"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="33" t="n">
-        <v>219687</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>92331</v>
-      </c>
-      <c r="G21" s="9" t="n">
-        <v>35431</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J21" s="12" t="n">
-        <v>75170</v>
-      </c>
-      <c r="K21" s="13" t="n">
-        <v>36600</v>
-      </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N21" s="14" t="n">
-        <v>129365</v>
-      </c>
-      <c r="O21" s="15" t="n">
-        <v>35431</v>
-      </c>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R21" s="16" t="n">
-        <v>60808</v>
-      </c>
-      <c r="S21" s="17" t="n">
-        <v>38353</v>
-      </c>
-      <c r="T21" s="17"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="33" t="n">
-        <v>219686</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>59634</v>
-      </c>
-      <c r="G22" s="9" t="n">
-        <v>38353</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J22" s="12" t="n">
-        <v>59616</v>
-      </c>
-      <c r="K22" s="13" t="n">
-        <v>38353</v>
-      </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N22" s="14" t="n">
-        <v>94888</v>
-      </c>
-      <c r="O22" s="15" t="n">
-        <v>37257</v>
-      </c>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R22" s="16" t="n">
-        <v>59547</v>
-      </c>
-      <c r="S22" s="17" t="n">
-        <v>38353</v>
-      </c>
-      <c r="T22" s="17"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="34" t="n">
-        <v>271780</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F23" s="6" t="n">
-        <v>60056</v>
-      </c>
-      <c r="G23" s="9" t="n">
-        <v>38353</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J23" s="12" t="n">
-        <v>60054</v>
-      </c>
-      <c r="K23" s="13" t="n">
-        <v>38353</v>
-      </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N23" s="14" t="n">
-        <v>94084</v>
-      </c>
-      <c r="O23" s="15" t="n">
-        <v>37257</v>
-      </c>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R23" s="16" t="n">
-        <v>59395</v>
-      </c>
-      <c r="S23" s="17" t="n">
-        <v>38353</v>
-      </c>
-      <c r="T23" s="17"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="34" t="n">
-        <v>271782</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>59914</v>
-      </c>
-      <c r="G24" s="9" t="n">
-        <v>38353</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J24" s="12" t="n">
-        <v>59626</v>
-      </c>
-      <c r="K24" s="13" t="n">
-        <v>38353</v>
-      </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N24" s="14" t="n">
-        <v>95476</v>
-      </c>
-      <c r="O24" s="15" t="n">
-        <v>37257</v>
-      </c>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R24" s="16" t="n">
-        <v>59580</v>
-      </c>
-      <c r="S24" s="17" t="n">
-        <v>38353</v>
-      </c>
-      <c r="T24" s="17"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="19"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="34" t="n">
-        <v>271781</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>60209</v>
-      </c>
-      <c r="G25" s="9" t="n">
-        <v>38353</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J25" s="12" t="n">
-        <v>60212</v>
-      </c>
-      <c r="K25" s="13" t="n">
-        <v>38353</v>
-      </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N25" s="14" t="n">
-        <v>94499</v>
-      </c>
-      <c r="O25" s="15" t="n">
-        <v>37257</v>
-      </c>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R25" s="16" t="n">
-        <v>60111</v>
-      </c>
-      <c r="S25" s="17" t="n">
-        <v>38353</v>
-      </c>
-      <c r="T25" s="17"/>
-      <c r="U25" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="V25" s="18" t="n">
-        <v>34250</v>
-      </c>
-      <c r="W25" s="19" t="n">
-        <v>39818</v>
-      </c>
-      <c r="X25" s="10"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="34" t="n">
-        <v>271783</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F26" s="6" t="n">
-        <v>122492</v>
-      </c>
-      <c r="G26" s="9" t="n">
-        <v>35431</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J26" s="12" t="n">
-        <v>103860</v>
-      </c>
-      <c r="K26" s="13" t="n">
-        <v>36526</v>
-      </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N26" s="14" t="n">
-        <v>122968</v>
-      </c>
-      <c r="O26" s="15" t="n">
-        <v>35431</v>
-      </c>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R26" s="16" t="n">
-        <v>94577</v>
-      </c>
-      <c r="S26" s="17" t="n">
-        <v>36892</v>
-      </c>
-      <c r="T26" s="17"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="35" t="n">
-        <v>1636763</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F27" s="6" t="n">
-        <v>101289</v>
-      </c>
-      <c r="G27" s="9" t="n">
-        <v>35431</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J27" s="12" t="n">
-        <v>83143</v>
-      </c>
-      <c r="K27" s="13" t="n">
-        <v>36536</v>
-      </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N27" s="14" t="n">
-        <v>107359</v>
-      </c>
-      <c r="O27" s="15" t="n">
-        <v>35431</v>
-      </c>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="R27" s="32" t="n">
-        <v>1673</v>
-      </c>
-      <c r="S27" s="31" t="n">
-        <v>37272</v>
-      </c>
-      <c r="T27" s="31"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="35" t="n">
-        <v>1636762</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F28" s="6" t="n">
-        <v>116848</v>
-      </c>
-      <c r="G28" s="9" t="n">
-        <v>35738</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J28" s="12" t="n">
-        <v>104616</v>
-      </c>
-      <c r="K28" s="13" t="n">
-        <v>36526</v>
-      </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="N28" s="36" t="n">
-        <v>119427</v>
-      </c>
-      <c r="O28" s="37" t="n">
-        <v>35738</v>
-      </c>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="R28" s="32" t="n">
-        <v>1967</v>
-      </c>
-      <c r="S28" s="31" t="n">
-        <v>37258</v>
-      </c>
-      <c r="T28" s="31"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="38" t="n">
-        <v>251775</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F29" s="6" t="n">
-        <v>125646</v>
-      </c>
-      <c r="G29" s="9" t="n">
-        <v>35886</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J29" s="12" t="n">
-        <v>110605</v>
-      </c>
-      <c r="K29" s="13" t="n">
-        <v>36526</v>
-      </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N29" s="14" t="n">
-        <v>114768</v>
-      </c>
-      <c r="O29" s="15" t="n">
-        <v>35886</v>
-      </c>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R29" s="16" t="n">
-        <v>99562</v>
-      </c>
-      <c r="S29" s="17" t="n">
-        <v>36452</v>
-      </c>
-      <c r="T29" s="17"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="B30" s="38" t="n">
-        <v>251774</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F30" s="6" t="n">
-        <v>93823</v>
-      </c>
-      <c r="G30" s="9" t="n">
-        <v>36892</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J30" s="12" t="n">
-        <v>93523</v>
-      </c>
-      <c r="K30" s="13" t="n">
-        <v>36892</v>
-      </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N30" s="14" t="n">
-        <v>91311</v>
-      </c>
-      <c r="O30" s="15" t="n">
-        <v>36892</v>
-      </c>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R30" s="16" t="n">
-        <v>95877</v>
-      </c>
-      <c r="S30" s="17" t="n">
-        <v>37056</v>
-      </c>
-      <c r="T30" s="17"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="B31" s="38" t="n">
-        <v>251776</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F31" s="6" t="n">
-        <v>65164</v>
-      </c>
-      <c r="G31" s="9" t="n">
-        <v>38353</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J31" s="12" t="n">
-        <v>56504</v>
-      </c>
-      <c r="K31" s="13" t="n">
-        <v>38353</v>
-      </c>
-      <c r="L31" s="13"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="19"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="39" t="n">
-        <v>298412</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F32" s="6" t="n">
-        <v>66075</v>
-      </c>
-      <c r="G32" s="9" t="n">
-        <v>38353</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J32" s="12" t="n">
-        <v>57796</v>
-      </c>
-      <c r="K32" s="13" t="n">
-        <v>38353</v>
-      </c>
-      <c r="L32" s="13"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R32" s="16" t="n">
-        <v>68663</v>
-      </c>
-      <c r="S32" s="17" t="n">
-        <v>38353</v>
-      </c>
-      <c r="T32" s="17"/>
-      <c r="U32" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="V32" s="18" t="n">
-        <v>26843</v>
-      </c>
-      <c r="W32" s="19" t="n">
-        <v>37987</v>
-      </c>
-      <c r="X32" s="19"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="39" t="n">
-        <v>298414</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F33" s="6" t="n">
-        <v>53303</v>
-      </c>
-      <c r="G33" s="9" t="n">
-        <v>38353</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J33" s="12" t="n">
-        <v>53258</v>
-      </c>
-      <c r="K33" s="13" t="n">
-        <v>38353</v>
-      </c>
-      <c r="L33" s="13"/>
-      <c r="M33" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N33" s="14" t="n">
-        <v>91277</v>
-      </c>
-      <c r="O33" s="15" t="n">
-        <v>37382</v>
-      </c>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R33" s="16" t="n">
-        <v>69018</v>
-      </c>
-      <c r="S33" s="17" t="n">
-        <v>38353</v>
-      </c>
-      <c r="T33" s="17"/>
-      <c r="U33" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="V33" s="18" t="n">
-        <v>32707</v>
-      </c>
-      <c r="W33" s="19" t="n">
-        <v>39814</v>
-      </c>
-      <c r="X33" s="10"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" s="40" t="n">
-        <v>187416</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F34" s="6" t="n">
-        <v>114690</v>
-      </c>
-      <c r="G34" s="9" t="n">
-        <v>35886</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J34" s="12" t="n">
-        <v>102092</v>
-      </c>
-      <c r="K34" s="13" t="n">
-        <v>36526</v>
-      </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N34" s="14" t="n">
-        <v>111961</v>
-      </c>
-      <c r="O34" s="15" t="n">
-        <v>35886</v>
-      </c>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R34" s="16" t="n">
-        <v>101618</v>
-      </c>
-      <c r="S34" s="17" t="n">
-        <v>36454</v>
-      </c>
-      <c r="T34" s="17"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="19"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="40" t="n">
-        <v>187417</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F35" s="6" t="n">
-        <v>67521</v>
-      </c>
-      <c r="G35" s="9" t="n">
-        <v>38353</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J35" s="12" t="n">
-        <v>67521</v>
-      </c>
-      <c r="K35" s="13" t="n">
-        <v>38353</v>
-      </c>
-      <c r="L35" s="13"/>
-      <c r="M35" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N35" s="14" t="n">
-        <v>72930</v>
-      </c>
-      <c r="O35" s="15" t="n">
-        <v>38042</v>
-      </c>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R35" s="16" t="n">
-        <v>52123</v>
-      </c>
-      <c r="S35" s="17" t="n">
-        <v>38353</v>
-      </c>
-      <c r="T35" s="17"/>
-      <c r="U35" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="V35" s="18" t="n">
-        <v>481</v>
-      </c>
-      <c r="W35" s="19" t="n">
+      <c r="N35" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="O35" s="24" t="n">
         <v>39828</v>
       </c>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="0"/>
       <c r="X35" s="0"/>
       <c r="Y35" s="0"/>
       <c r="Z35" s="0"/>
@@ -4950,46 +4742,46 @@
       <c r="B36" s="1" t="n">
         <v>201653</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="D36" s="20" t="s">
+      <c r="C36" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D36" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="G36" s="41"/>
+      <c r="E36" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>233</v>
+      </c>
       <c r="H36" s="0"/>
-      <c r="I36" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="J36" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="K36" s="41"/>
-      <c r="L36" s="0"/>
-      <c r="M36" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="N36" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="O36" s="41"/>
+      <c r="I36" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="K36" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="L36" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="M36" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="N36" s="0"/>
+      <c r="O36" s="0"/>
       <c r="P36" s="0"/>
-      <c r="Q36" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="R36" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="S36" s="41"/>
-      <c r="T36" s="0"/>
-      <c r="U36" s="0"/>
-      <c r="V36" s="0"/>
+      <c r="Q36" s="0"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
       <c r="W36" s="0"/>
       <c r="X36" s="0"/>
       <c r="Y36" s="0"/>
@@ -5016,56 +4808,46 @@
       <c r="D37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F37" s="6" t="n">
-        <v>73990</v>
-      </c>
-      <c r="G37" s="9" t="n">
+      <c r="E37" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F37" s="15" t="n">
         <v>37622</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J37" s="12" t="n">
-        <v>73989</v>
-      </c>
-      <c r="K37" s="13" t="n">
+      <c r="G37" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H37" s="0"/>
+      <c r="I37" s="17" t="n">
         <v>37622</v>
       </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N37" s="14" t="n">
-        <v>83573</v>
-      </c>
-      <c r="O37" s="15" t="n">
+      <c r="J37" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K37" s="19" t="n">
         <v>37509</v>
       </c>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="R37" s="32" t="n">
-        <v>2621</v>
-      </c>
-      <c r="S37" s="31" t="n">
+      <c r="L37" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="M37" s="38" t="n">
         <v>37622</v>
       </c>
-      <c r="T37" s="31"/>
-      <c r="U37" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="V37" s="32" t="n">
-        <v>8483</v>
-      </c>
-      <c r="W37" s="31" t="n">
+      <c r="N37" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="O37" s="38" t="n">
         <v>39814</v>
       </c>
-      <c r="X37" s="31"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="0"/>
+      <c r="X37" s="38"/>
     </row>
     <row r="38" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
@@ -5080,56 +4862,46 @@
       <c r="D38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F38" s="6" t="n">
-        <v>50588</v>
-      </c>
-      <c r="G38" s="9" t="n">
+      <c r="E38" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F38" s="15" t="n">
         <v>38757</v>
       </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J38" s="12" t="n">
-        <v>50606</v>
-      </c>
-      <c r="K38" s="13" t="n">
+      <c r="G38" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H38" s="0"/>
+      <c r="I38" s="17" t="n">
         <v>38757</v>
       </c>
-      <c r="L38" s="13"/>
-      <c r="M38" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N38" s="14" t="n">
-        <v>52745</v>
-      </c>
-      <c r="O38" s="15" t="n">
+      <c r="J38" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K38" s="19" t="n">
         <v>38755</v>
       </c>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="R38" s="32" t="n">
-        <v>1775</v>
-      </c>
-      <c r="S38" s="31" t="n">
+      <c r="L38" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="M38" s="38" t="n">
         <v>38777</v>
       </c>
-      <c r="T38" s="31"/>
-      <c r="U38" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="V38" s="32" t="n">
-        <v>127</v>
-      </c>
-      <c r="W38" s="31" t="n">
+      <c r="N38" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="O38" s="38" t="n">
         <v>38790</v>
       </c>
-      <c r="X38" s="31"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="0"/>
+      <c r="X38" s="38"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
@@ -5144,56 +4916,46 @@
       <c r="D39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F39" s="6" t="n">
-        <v>38504</v>
-      </c>
-      <c r="G39" s="9" t="n">
+      <c r="E39" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F39" s="15" t="n">
         <v>39280</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J39" s="12" t="n">
-        <v>38504</v>
-      </c>
-      <c r="K39" s="13" t="n">
+      <c r="G39" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H39" s="0"/>
+      <c r="I39" s="17" t="n">
         <v>39280</v>
       </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N39" s="14" t="n">
-        <v>44285</v>
-      </c>
-      <c r="O39" s="15" t="n">
+      <c r="J39" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K39" s="19" t="n">
         <v>39280</v>
       </c>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="R39" s="32" t="n">
-        <v>1591</v>
-      </c>
-      <c r="S39" s="31" t="n">
+      <c r="L39" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="M39" s="38" t="n">
         <v>39281</v>
       </c>
-      <c r="T39" s="31"/>
-      <c r="U39" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="V39" s="32" t="n">
-        <v>7793</v>
-      </c>
-      <c r="W39" s="31" t="n">
+      <c r="N39" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="O39" s="38" t="n">
         <v>39814</v>
       </c>
-      <c r="X39" s="31"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="0"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="0"/>
+      <c r="X39" s="38"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
@@ -5208,48 +4970,41 @@
       <c r="D40" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F40" s="6" t="n">
-        <v>84971</v>
-      </c>
-      <c r="G40" s="9" t="n">
+      <c r="E40" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40" s="15" t="n">
         <v>36161</v>
       </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J40" s="12" t="n">
-        <v>76723</v>
-      </c>
-      <c r="K40" s="13" t="n">
+      <c r="G40" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H40" s="0"/>
+      <c r="I40" s="17" t="n">
         <v>36526</v>
       </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="N40" s="36" t="n">
-        <v>88979</v>
-      </c>
-      <c r="O40" s="37" t="n">
+      <c r="J40" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="K40" s="44" t="n">
         <v>36161</v>
       </c>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="R40" s="32" t="n">
-        <v>1985</v>
-      </c>
-      <c r="S40" s="31" t="n">
+      <c r="L40" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="M40" s="38" t="n">
         <v>37258</v>
       </c>
-      <c r="T40" s="31"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="0"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="0"/>
+      <c r="X40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
@@ -5264,48 +5019,41 @@
       <c r="D41" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F41" s="6" t="n">
-        <v>55681</v>
-      </c>
-      <c r="G41" s="9" t="n">
+      <c r="E41" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F41" s="15" t="n">
         <v>38600</v>
       </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J41" s="12" t="n">
-        <v>44166</v>
-      </c>
-      <c r="K41" s="13" t="n">
+      <c r="G41" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H41" s="0"/>
+      <c r="I41" s="17" t="n">
         <v>38600</v>
       </c>
-      <c r="L41" s="13"/>
-      <c r="M41" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N41" s="14" t="n">
-        <v>57913</v>
-      </c>
-      <c r="O41" s="15" t="n">
+      <c r="J41" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K41" s="19" t="n">
         <v>38565</v>
       </c>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R41" s="16" t="n">
-        <v>42811</v>
-      </c>
-      <c r="S41" s="17" t="n">
+      <c r="L41" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M41" s="21" t="n">
         <v>39448</v>
       </c>
-      <c r="T41" s="17"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="0"/>
+      <c r="X41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
@@ -5320,48 +5068,41 @@
       <c r="D42" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F42" s="6" t="n">
-        <v>54364</v>
-      </c>
-      <c r="G42" s="9" t="n">
+      <c r="E42" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F42" s="15" t="n">
         <v>38533</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J42" s="12" t="n">
-        <v>43491</v>
-      </c>
-      <c r="K42" s="13" t="n">
+      <c r="G42" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H42" s="0"/>
+      <c r="I42" s="17" t="n">
         <v>38533</v>
       </c>
-      <c r="L42" s="13"/>
-      <c r="M42" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N42" s="14" t="n">
-        <v>55984</v>
-      </c>
-      <c r="O42" s="15" t="n">
+      <c r="J42" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K42" s="19" t="n">
         <v>38533</v>
       </c>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R42" s="16" t="n">
-        <v>41063</v>
-      </c>
-      <c r="S42" s="17" t="n">
+      <c r="L42" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M42" s="21" t="n">
         <v>39265</v>
       </c>
-      <c r="T42" s="17"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="0"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="0"/>
+      <c r="X42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
@@ -5376,40 +5117,36 @@
       <c r="D43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F43" s="6" t="n">
-        <v>37520</v>
-      </c>
-      <c r="G43" s="9" t="n">
+      <c r="E43" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F43" s="15" t="n">
         <v>38353</v>
       </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J43" s="12" t="n">
-        <v>28721</v>
-      </c>
-      <c r="K43" s="13" t="n">
+      <c r="G43" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H43" s="0"/>
+      <c r="I43" s="17" t="n">
         <v>38353</v>
       </c>
-      <c r="L43" s="13"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R43" s="16" t="n">
-        <v>36920</v>
-      </c>
-      <c r="S43" s="17" t="n">
+      <c r="K43" s="13"/>
+      <c r="L43" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M43" s="21" t="n">
         <v>38353</v>
       </c>
-      <c r="T43" s="17"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="0"/>
+      <c r="X43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
@@ -5424,48 +5161,41 @@
       <c r="D44" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F44" s="6" t="n">
-        <v>136427</v>
-      </c>
-      <c r="G44" s="9" t="n">
+      <c r="E44" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F44" s="15" t="n">
         <v>35431</v>
       </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J44" s="12" t="n">
-        <v>110299</v>
-      </c>
-      <c r="K44" s="13" t="n">
+      <c r="G44" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H44" s="0"/>
+      <c r="I44" s="17" t="n">
         <v>36526</v>
       </c>
-      <c r="L44" s="13"/>
-      <c r="M44" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N44" s="14" t="n">
-        <v>109648</v>
-      </c>
-      <c r="O44" s="15" t="n">
+      <c r="J44" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K44" s="19" t="n">
         <v>35431</v>
       </c>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R44" s="16" t="n">
-        <v>120174</v>
-      </c>
-      <c r="S44" s="17" t="n">
+      <c r="L44" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M44" s="21" t="n">
         <v>36069</v>
       </c>
-      <c r="T44" s="17"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="0"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="0"/>
+      <c r="X44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
@@ -5480,56 +5210,46 @@
       <c r="D45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F45" s="6" t="n">
-        <v>112627</v>
-      </c>
-      <c r="G45" s="9" t="n">
+      <c r="E45" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F45" s="15" t="n">
         <v>36161</v>
       </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J45" s="12" t="n">
-        <v>105837</v>
-      </c>
-      <c r="K45" s="13" t="n">
+      <c r="G45" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H45" s="0"/>
+      <c r="I45" s="17" t="n">
         <v>36526</v>
       </c>
-      <c r="L45" s="13"/>
-      <c r="M45" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="N45" s="36" t="n">
-        <v>116948</v>
-      </c>
-      <c r="O45" s="37" t="n">
+      <c r="J45" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="K45" s="44" t="n">
         <v>36161</v>
       </c>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="R45" s="32" t="n">
-        <v>1417</v>
-      </c>
-      <c r="S45" s="31" t="n">
+      <c r="L45" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="M45" s="38" t="n">
         <v>37260</v>
       </c>
-      <c r="T45" s="31"/>
-      <c r="U45" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="V45" s="32" t="n">
-        <v>899</v>
-      </c>
-      <c r="W45" s="31" t="n">
+      <c r="N45" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="O45" s="38" t="n">
         <v>39211</v>
       </c>
-      <c r="X45" s="31"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="0"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="0"/>
+      <c r="X45" s="38"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
@@ -5544,48 +5264,41 @@
       <c r="D46" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F46" s="6" t="n">
-        <v>130063</v>
-      </c>
-      <c r="G46" s="9" t="n">
+      <c r="E46" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F46" s="15" t="n">
         <v>35431</v>
       </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J46" s="12" t="n">
-        <v>106784</v>
-      </c>
-      <c r="K46" s="13" t="n">
+      <c r="G46" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H46" s="0"/>
+      <c r="I46" s="17" t="n">
         <v>36526</v>
       </c>
-      <c r="L46" s="13"/>
-      <c r="M46" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="N46" s="36" t="n">
-        <v>132549</v>
-      </c>
-      <c r="O46" s="37" t="n">
+      <c r="J46" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="K46" s="44" t="n">
         <v>35431</v>
       </c>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="R46" s="32" t="n">
-        <v>1627</v>
-      </c>
-      <c r="S46" s="31" t="n">
+      <c r="L46" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="M46" s="38" t="n">
         <v>36256</v>
       </c>
-      <c r="T46" s="31"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="0"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="0"/>
+      <c r="X46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
@@ -5600,48 +5313,41 @@
       <c r="D47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F47" s="6" t="n">
-        <v>42949</v>
-      </c>
-      <c r="G47" s="9" t="n">
+      <c r="E47" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F47" s="15" t="n">
         <v>35431</v>
       </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J47" s="12" t="n">
-        <v>17302</v>
-      </c>
-      <c r="K47" s="13" t="n">
+      <c r="G47" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H47" s="0"/>
+      <c r="I47" s="17" t="n">
         <v>36526</v>
       </c>
-      <c r="L47" s="13"/>
-      <c r="M47" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N47" s="14" t="n">
-        <v>10390</v>
-      </c>
-      <c r="O47" s="15" t="n">
+      <c r="J47" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K47" s="19" t="n">
         <v>35431</v>
       </c>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R47" s="16" t="n">
-        <v>59146</v>
-      </c>
-      <c r="S47" s="17" t="n">
+      <c r="L47" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M47" s="21" t="n">
         <v>35431</v>
       </c>
-      <c r="T47" s="17"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="0"/>
+      <c r="X47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
@@ -5656,56 +5362,46 @@
       <c r="D48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F48" s="6" t="n">
-        <v>65734</v>
-      </c>
-      <c r="G48" s="9" t="n">
+      <c r="E48" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F48" s="15" t="n">
         <v>38353</v>
       </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J48" s="12" t="n">
-        <v>65722</v>
-      </c>
-      <c r="K48" s="13" t="n">
+      <c r="G48" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H48" s="0"/>
+      <c r="I48" s="17" t="n">
         <v>38353</v>
       </c>
-      <c r="L48" s="13"/>
-      <c r="M48" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N48" s="14" t="n">
-        <v>92803</v>
-      </c>
-      <c r="O48" s="15" t="n">
+      <c r="J48" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K48" s="19" t="n">
         <v>37257</v>
       </c>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R48" s="16" t="n">
-        <v>16540</v>
-      </c>
-      <c r="S48" s="17" t="n">
+      <c r="L48" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M48" s="21" t="n">
         <v>38353</v>
       </c>
-      <c r="T48" s="17"/>
-      <c r="U48" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="V48" s="18" t="n">
-        <v>462</v>
-      </c>
-      <c r="W48" s="19" t="n">
+      <c r="N48" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="O48" s="24" t="n">
         <v>39818</v>
       </c>
-      <c r="X48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="0"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="0"/>
+      <c r="X48" s="24"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
@@ -5720,48 +5416,41 @@
       <c r="D49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F49" s="6" t="n">
-        <v>48401</v>
-      </c>
-      <c r="G49" s="9" t="n">
+      <c r="E49" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F49" s="15" t="n">
         <v>38359</v>
       </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J49" s="12" t="n">
-        <v>48388</v>
-      </c>
-      <c r="K49" s="13" t="n">
+      <c r="G49" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H49" s="0"/>
+      <c r="I49" s="17" t="n">
         <v>38359</v>
       </c>
-      <c r="L49" s="13"/>
-      <c r="M49" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N49" s="14" t="n">
-        <v>91718</v>
-      </c>
-      <c r="O49" s="15" t="n">
+      <c r="J49" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K49" s="19" t="n">
         <v>37257</v>
       </c>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R49" s="16" t="n">
-        <v>25088</v>
-      </c>
-      <c r="S49" s="17" t="n">
+      <c r="L49" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M49" s="21" t="n">
         <v>38353</v>
       </c>
-      <c r="T49" s="17"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="0"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="0"/>
+      <c r="X49" s="13"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
@@ -5776,56 +5465,46 @@
       <c r="D50" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F50" s="6" t="n">
-        <v>98268</v>
-      </c>
-      <c r="G50" s="9" t="n">
+      <c r="E50" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F50" s="15" t="n">
         <v>36892</v>
       </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J50" s="12" t="n">
-        <v>98284</v>
-      </c>
-      <c r="K50" s="13" t="n">
+      <c r="G50" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H50" s="0"/>
+      <c r="I50" s="17" t="n">
         <v>36892</v>
       </c>
-      <c r="L50" s="13"/>
-      <c r="M50" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N50" s="14" t="n">
-        <v>92866</v>
-      </c>
-      <c r="O50" s="15" t="n">
+      <c r="J50" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K50" s="19" t="n">
         <v>36892</v>
       </c>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R50" s="16" t="n">
-        <v>66334</v>
-      </c>
-      <c r="S50" s="17" t="n">
+      <c r="L50" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M50" s="21" t="n">
         <v>36894</v>
       </c>
-      <c r="T50" s="17"/>
-      <c r="U50" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="V50" s="18" t="n">
-        <v>404</v>
-      </c>
-      <c r="W50" s="19" t="n">
+      <c r="N50" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="O50" s="24" t="n">
         <v>39882</v>
       </c>
-      <c r="X50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="0"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="0"/>
+      <c r="X50" s="24"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
@@ -5840,48 +5519,41 @@
       <c r="D51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F51" s="6" t="n">
-        <v>103707</v>
-      </c>
-      <c r="G51" s="9" t="n">
+      <c r="E51" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F51" s="15" t="n">
         <v>36892</v>
       </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J51" s="12" t="n">
-        <v>103741</v>
-      </c>
-      <c r="K51" s="13" t="n">
+      <c r="G51" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H51" s="0"/>
+      <c r="I51" s="17" t="n">
         <v>36892</v>
       </c>
-      <c r="L51" s="13"/>
-      <c r="M51" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N51" s="14" t="n">
-        <v>103347</v>
-      </c>
-      <c r="O51" s="15" t="n">
+      <c r="J51" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K51" s="19" t="n">
         <v>36892</v>
       </c>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R51" s="16" t="n">
-        <v>103545</v>
-      </c>
-      <c r="S51" s="17" t="n">
+      <c r="L51" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M51" s="21" t="n">
         <v>36893</v>
       </c>
-      <c r="T51" s="17"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="0"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="0"/>
+      <c r="X51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
@@ -5896,48 +5568,41 @@
       <c r="D52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F52" s="6" t="n">
-        <v>103884</v>
-      </c>
-      <c r="G52" s="9" t="n">
+      <c r="E52" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F52" s="15" t="n">
         <v>36892</v>
       </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J52" s="12" t="n">
-        <v>103888</v>
-      </c>
-      <c r="K52" s="13" t="n">
+      <c r="G52" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H52" s="0"/>
+      <c r="I52" s="17" t="n">
         <v>36892</v>
       </c>
-      <c r="L52" s="13"/>
-      <c r="M52" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N52" s="14" t="n">
-        <v>103365</v>
-      </c>
-      <c r="O52" s="15" t="n">
+      <c r="J52" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K52" s="19" t="n">
         <v>36892</v>
       </c>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R52" s="16" t="n">
-        <v>103336</v>
-      </c>
-      <c r="S52" s="17" t="n">
+      <c r="L52" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M52" s="21" t="n">
         <v>36893</v>
       </c>
-      <c r="T52" s="17"/>
-      <c r="W52" s="10"/>
-      <c r="X52" s="10"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="0"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="0"/>
+      <c r="X52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
@@ -5952,48 +5617,41 @@
       <c r="D53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F53" s="6" t="n">
-        <v>103906</v>
-      </c>
-      <c r="G53" s="9" t="n">
+      <c r="E53" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F53" s="15" t="n">
         <v>36892</v>
       </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J53" s="12" t="n">
-        <v>104100</v>
-      </c>
-      <c r="K53" s="13" t="n">
+      <c r="G53" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H53" s="0"/>
+      <c r="I53" s="17" t="n">
         <v>36892</v>
       </c>
-      <c r="L53" s="13"/>
-      <c r="M53" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N53" s="14" t="n">
-        <v>103943</v>
-      </c>
-      <c r="O53" s="15" t="n">
+      <c r="J53" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K53" s="19" t="n">
         <v>36892</v>
       </c>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R53" s="16" t="n">
-        <v>104307</v>
-      </c>
-      <c r="S53" s="17" t="n">
+      <c r="L53" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M53" s="21" t="n">
         <v>36893</v>
       </c>
-      <c r="T53" s="17"/>
-      <c r="W53" s="10"/>
-      <c r="X53" s="10"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="0"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="0"/>
+      <c r="X53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
@@ -6008,56 +5666,46 @@
       <c r="D54" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F54" s="6" t="n">
-        <v>93259</v>
-      </c>
-      <c r="G54" s="9" t="n">
+      <c r="E54" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F54" s="15" t="n">
         <v>36892</v>
       </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J54" s="12" t="n">
-        <v>98116</v>
-      </c>
-      <c r="K54" s="13" t="n">
+      <c r="G54" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H54" s="0"/>
+      <c r="I54" s="17" t="n">
         <v>36892</v>
       </c>
-      <c r="L54" s="13"/>
-      <c r="M54" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N54" s="14" t="n">
-        <v>97869</v>
-      </c>
-      <c r="O54" s="15" t="n">
+      <c r="J54" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K54" s="19" t="n">
         <v>36892</v>
       </c>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R54" s="16" t="n">
-        <v>96496</v>
-      </c>
-      <c r="S54" s="17" t="n">
+      <c r="L54" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M54" s="21" t="n">
         <v>36893</v>
       </c>
-      <c r="T54" s="17"/>
-      <c r="U54" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="V54" s="18" t="n">
-        <v>74354</v>
-      </c>
-      <c r="W54" s="19" t="n">
+      <c r="N54" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="O54" s="24" t="n">
         <v>37987</v>
       </c>
-      <c r="X54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="0"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="22"/>
+      <c r="W54" s="0"/>
+      <c r="X54" s="24"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
@@ -6072,48 +5720,41 @@
       <c r="D55" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E55" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F55" s="6" t="n">
-        <v>94352</v>
-      </c>
-      <c r="G55" s="9" t="n">
+      <c r="E55" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F55" s="15" t="n">
         <v>37257</v>
       </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J55" s="12" t="n">
-        <v>94351</v>
-      </c>
-      <c r="K55" s="13" t="n">
+      <c r="G55" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H55" s="0"/>
+      <c r="I55" s="17" t="n">
         <v>37257</v>
       </c>
-      <c r="L55" s="13"/>
-      <c r="M55" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N55" s="14" t="n">
-        <v>34163</v>
-      </c>
-      <c r="O55" s="15" t="n">
+      <c r="J55" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K55" s="19" t="n">
         <v>37257</v>
       </c>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R55" s="16" t="n">
-        <v>94190</v>
-      </c>
-      <c r="S55" s="17" t="n">
+      <c r="L55" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M55" s="21" t="n">
         <v>37257</v>
       </c>
-      <c r="T55" s="17"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="0"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="0"/>
+      <c r="X55" s="13"/>
     </row>
     <row r="56" customFormat="false" ht="14.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
@@ -6128,56 +5769,46 @@
       <c r="D56" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F56" s="6" t="n">
-        <v>83930</v>
-      </c>
-      <c r="G56" s="9" t="n">
+      <c r="E56" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F56" s="15" t="n">
         <v>37172</v>
       </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J56" s="12" t="n">
-        <v>84178</v>
-      </c>
-      <c r="K56" s="13" t="n">
+      <c r="G56" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H56" s="0"/>
+      <c r="I56" s="17" t="n">
         <v>37172</v>
       </c>
-      <c r="L56" s="13"/>
-      <c r="M56" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N56" s="14" t="n">
-        <v>82925</v>
-      </c>
-      <c r="O56" s="15" t="n">
+      <c r="J56" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K56" s="19" t="n">
         <v>37202</v>
       </c>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R56" s="16" t="n">
-        <v>68917</v>
-      </c>
-      <c r="S56" s="17" t="n">
+      <c r="L56" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M56" s="21" t="n">
         <v>37176</v>
       </c>
-      <c r="T56" s="17"/>
-      <c r="U56" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="V56" s="18" t="n">
-        <v>20889</v>
-      </c>
-      <c r="W56" s="19" t="n">
+      <c r="N56" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="O56" s="24" t="n">
         <v>40179</v>
       </c>
-      <c r="X56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="0"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="0"/>
+      <c r="X56" s="24"/>
       <c r="AI56" s="0"/>
       <c r="AJ56" s="0"/>
       <c r="AK56" s="0"/>
@@ -7182,48 +6813,42 @@
       <c r="D57" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F57" s="6" t="n">
-        <v>85348</v>
-      </c>
-      <c r="G57" s="9" t="n">
+      <c r="E57" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F57" s="15" t="n">
         <v>37622</v>
       </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="J57" s="12" t="n">
-        <v>85105</v>
-      </c>
-      <c r="K57" s="13" t="n">
+      <c r="G57" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H57" s="0"/>
+      <c r="I57" s="17" t="n">
         <v>37622</v>
       </c>
-      <c r="L57" s="13"/>
-      <c r="M57" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="N57" s="14" t="n">
-        <v>21888</v>
-      </c>
-      <c r="O57" s="15" t="n">
+      <c r="J57" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="K57" s="19" t="n">
         <v>38509</v>
       </c>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="R57" s="16" t="n">
-        <v>83416</v>
-      </c>
-      <c r="S57" s="17" t="n">
+      <c r="L57" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="M57" s="21" t="n">
         <v>37622</v>
       </c>
-      <c r="T57" s="17"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="10"/>
+      <c r="N57" s="0"/>
+      <c r="O57" s="0"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
       <c r="AI57" s="0"/>
       <c r="AJ57" s="0"/>
       <c r="AK57" s="0"/>
@@ -8216,73 +7841,83 @@
       <c r="AMJ57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="43" t="n">
-        <v>245711</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="F58" s="45"/>
+      <c r="A58" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="50" t="n">
+        <v>325701</v>
+      </c>
+      <c r="C58" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="F58" s="51"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="43" t="n">
-        <v>334887</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="F59" s="45"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
+      <c r="A59" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="50" t="n">
+        <v>183374</v>
+      </c>
+      <c r="C59" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="F59" s="51"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="53"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="22.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" s="43" t="n">
-        <v>325701</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="F60" s="48"/>
+      <c r="A60" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="50" t="n">
+        <v>101852</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="F60" s="51"/>
       <c r="G60" s="0"/>
       <c r="H60" s="0"/>
       <c r="I60" s="0"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
       <c r="Q60" s="0"/>
       <c r="R60" s="0"/>
       <c r="S60" s="0"/>
@@ -8290,58 +7925,58 @@
       <c r="U60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="43" t="n">
-        <v>183374</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="E61" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="F61" s="48"/>
+      <c r="A61" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="50" t="n">
+        <v>3266133</v>
+      </c>
+      <c r="C61" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="F61" s="51"/>
       <c r="G61" s="0"/>
       <c r="H61" s="0"/>
       <c r="I61" s="0"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="49"/>
-      <c r="R61" s="49"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="R61" s="54"/>
     </row>
     <row r="62" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="43" t="n">
-        <v>101852</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="F62" s="48"/>
+      <c r="A62" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="50" t="n">
+        <v>3266135</v>
+      </c>
+      <c r="C62" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F62" s="51"/>
       <c r="G62" s="0"/>
       <c r="H62" s="0"/>
       <c r="I62" s="0"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="47"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="L62" s="53"/>
+      <c r="M62" s="53"/>
+      <c r="N62" s="53"/>
       <c r="Q62" s="0"/>
       <c r="R62" s="0"/>
       <c r="S62" s="0"/>
@@ -8349,30 +7984,30 @@
       <c r="U62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B63" s="43" t="n">
-        <v>3266133</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="D63" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E63" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="F63" s="48"/>
+      <c r="A63" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="50" t="n">
+        <v>574654</v>
+      </c>
+      <c r="C63" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="F63" s="51"/>
       <c r="G63" s="0"/>
       <c r="H63" s="0"/>
       <c r="I63" s="0"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="47"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="53"/>
       <c r="Q63" s="0"/>
       <c r="R63" s="0"/>
       <c r="S63" s="0"/>
@@ -8380,29 +8015,29 @@
       <c r="U63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B64" s="43" t="n">
-        <v>3266135</v>
-      </c>
-      <c r="C64" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="D64" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="F64" s="48"/>
+      <c r="A64" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="50" t="n">
+        <v>143386</v>
+      </c>
+      <c r="C64" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="F64" s="51"/>
       <c r="G64" s="0"/>
       <c r="H64" s="0"/>
       <c r="I64" s="0"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="54"/>
       <c r="Q64" s="0"/>
       <c r="R64" s="0"/>
       <c r="S64" s="0"/>
@@ -8410,29 +8045,29 @@
       <c r="U64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B65" s="43" t="n">
-        <v>574654</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="F65" s="48"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
+      <c r="A65" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" s="50" t="n">
+        <v>794290</v>
+      </c>
+      <c r="C65" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E65" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="F65" s="51"/>
+      <c r="J65" s="56"/>
+      <c r="K65" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
+      <c r="N65" s="53"/>
       <c r="Q65" s="0"/>
       <c r="R65" s="0"/>
       <c r="S65" s="0"/>
@@ -8440,27 +8075,27 @@
       <c r="U65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" s="43" t="n">
-        <v>143386</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D66" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="E66" s="48" t="s">
-        <v>254</v>
-      </c>
-      <c r="F66" s="48"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="47"/>
+      <c r="A66" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="50" t="n">
+        <v>298413</v>
+      </c>
+      <c r="C66" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="F66" s="51"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="53"/>
       <c r="Q66" s="0"/>
       <c r="R66" s="0"/>
       <c r="S66" s="0"/>
@@ -8468,26 +8103,26 @@
       <c r="U66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="B67" s="43" t="n">
-        <v>187415</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="E67" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="F67" s="45"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="49"/>
+      <c r="A67" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="50" t="n">
+        <v>298415</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="F67" s="51"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="54"/>
       <c r="Q67" s="0"/>
       <c r="R67" s="0"/>
       <c r="S67" s="0"/>
@@ -8495,29 +8130,30 @@
       <c r="U67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="B68" s="43" t="n">
-        <v>794290</v>
-      </c>
-      <c r="C68" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="D68" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="E68" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="F68" s="48"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
+      <c r="A68" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" s="50" t="n">
+        <v>295365</v>
+      </c>
+      <c r="C68" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="F68" s="51"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="L68" s="53"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="53"/>
+      <c r="O68" s="53"/>
       <c r="Q68" s="0"/>
       <c r="R68" s="0"/>
       <c r="S68" s="0"/>
@@ -8525,27 +8161,18 @@
       <c r="U68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="B69" s="43" t="n">
-        <v>298413</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="D69" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="E69" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="F69" s="48"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
+      <c r="A69" s="0"/>
+      <c r="B69" s="0"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="53"/>
+      <c r="O69" s="53"/>
       <c r="Q69" s="0"/>
       <c r="R69" s="0"/>
       <c r="S69" s="0"/>
@@ -8553,61 +8180,39 @@
       <c r="U69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="B70" s="43" t="n">
-        <v>298415</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="E70" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="F70" s="48"/>
+      <c r="A70" s="0"/>
+      <c r="B70" s="0"/>
+      <c r="C70" s="0"/>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="0"/>
       <c r="J70" s="0"/>
-      <c r="K70" s="49"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="49"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="54"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="B71" s="43" t="n">
-        <v>295365</v>
-      </c>
-      <c r="C71" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="D71" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="E71" s="48" t="s">
-        <v>260</v>
-      </c>
-      <c r="F71" s="48"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="47"/>
+      <c r="A71" s="0"/>
+      <c r="B71" s="0"/>
+      <c r="C71" s="0"/>
+      <c r="D71" s="0"/>
+      <c r="E71" s="0"/>
+      <c r="F71" s="0"/>
+      <c r="J71" s="0"/>
+      <c r="K71" s="0"/>
+      <c r="L71" s="0"/>
+      <c r="M71" s="0"/>
+      <c r="N71" s="0"/>
+      <c r="O71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J72" s="53"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="47"/>
+      <c r="J72" s="0"/>
+      <c r="K72" s="0"/>
+      <c r="L72" s="0"/>
+      <c r="M72" s="0"/>
+      <c r="N72" s="0"/>
+      <c r="O72" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I74" s="0"/>
@@ -8633,16 +8238,16 @@
     <row r="81" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I81" s="0"/>
       <c r="J81" s="0"/>
-      <c r="K81" s="49"/>
+      <c r="K81" s="54"/>
     </row>
     <row r="82" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I82" s="0"/>
-      <c r="K82" s="49"/>
+      <c r="K82" s="54"/>
     </row>
     <row r="83" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I83" s="0"/>
       <c r="J83" s="0"/>
-      <c r="K83" s="49"/>
+      <c r="K83" s="54"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I84" s="0"/>
@@ -8659,16 +8264,12 @@
       <c r="J87" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="R36:S36"/>
+  <mergeCells count="24">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="E59:F59"/>
     <mergeCell ref="J59:J60"/>
@@ -8687,12 +8288,7 @@
     <mergeCell ref="E67:F67"/>
     <mergeCell ref="E68:F68"/>
     <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:N69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="K71:O72"/>
+    <mergeCell ref="K68:O69"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
